--- a/data/save_data/2021/peralta_david.xlsx
+++ b/data/save_data/2021/peralta_david.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,6 +506,12 @@
       </c>
       <c r="H2" t="n">
         <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/save_data/2021/peralta_david.xlsx
+++ b/data/save_data/2021/peralta_david.xlsx
@@ -499,7 +499,7 @@
         <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="n">
         <v>7</v>

--- a/data/save_data/2021/peralta_david.xlsx
+++ b/data/save_data/2021/peralta_david.xlsx
@@ -502,7 +502,7 @@
         <v>-16</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>

--- a/data/save_data/2021/peralta_david.xlsx
+++ b/data/save_data/2021/peralta_david.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,10 +496,10 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="F2" t="n">
-        <v>-16</v>
+        <v>-3</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
